--- a/matrix-config/matrix-config-manager/request/config.xlsx
+++ b/matrix-config/matrix-config-manager/request/config.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14800"/>
+    <workbookView windowWidth="30240" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>namespace</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>source</t>
+  </si>
+  <si>
+    <t>resources</t>
   </si>
   <si>
     <t>ns1</t>
@@ -120,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -142,17 +145,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,7 +162,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,11 +206,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,84 +266,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,187 +290,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,6 +481,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -508,34 +520,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,9 +543,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,129 +566,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,31 +712,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1083,138 +1089,171 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.6923076923077" customWidth="1"/>
     <col min="2" max="2" width="15.7019230769231" customWidth="1"/>
     <col min="3" max="3" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
